--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3053523.668392075</v>
+        <v>3144443.196414602</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10909358.91494963</v>
+        <v>10907410.15957845</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1554850.914038107</v>
+        <v>1555926.37779077</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7887947.780306647</v>
+        <v>7889067.842141672</v>
       </c>
     </row>
     <row r="11">
@@ -1373,19 +1375,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>15.507155596567</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>84.7082395969901</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1540,7 +1542,7 @@
         <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404365</v>
       </c>
       <c r="H13" t="n">
         <v>97.7798782957282</v>
@@ -1579,7 +1581,7 @@
         <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575775</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
@@ -1607,22 +1609,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>219.9428014228307</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>276.0504944868604</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1780,10 +1782,10 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1847,19 +1849,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>205.3072713607643</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>324.1847740810747</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -1904,13 +1906,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2020,7 +2022,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>263.0456000642038</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>254.5617842395823</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2293,7 +2295,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
         <v>205.1625067052354</v>
@@ -2318,7 +2320,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
         <v>307.7079050020903</v>
@@ -2333,7 +2335,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,22 +2481,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145609</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2530,7 +2532,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2539,7 +2541,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
         <v>171.6095167335022</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>341.1569118905546</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>323.6959619980816</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>365.2991159687855</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>369.3447958805275</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>245.0667707903118</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
-        <v>162.3410403666942</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U26" t="n">
-        <v>209.418242185976</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
-        <v>286.175328697209</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>307.6640389444871</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>344.6610088831276</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>124.4488784861023</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>29.25600601213863</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35522289712138</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>177.9720195032432</v>
+        <v>172.573812657577</v>
       </c>
       <c r="U28" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2792,19 +2794,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210273</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2852,10 +2854,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.2977551524149</v>
@@ -3035,7 +3037,7 @@
         <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231188</v>
@@ -3044,7 +3046,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958319</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,22 +3192,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572814</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124545</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145469</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3243,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,10 +3252,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448879</v>
+        <v>30.39999580147057</v>
       </c>
       <c r="C35" t="n">
         <v>318.2977551524149</v>
@@ -3272,7 +3274,7 @@
         <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231188</v>
@@ -3281,7 +3283,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>296.2842774481106</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,22 +3429,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572814</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124545</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145469</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3478,7 +3480,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3487,10 +3489,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958322</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210275</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>15.5071555965679</v>
       </c>
       <c r="X38" t="n">
-        <v>97.61895071855548</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,22 +3666,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3717,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,7 +3726,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>359.8746849253408</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>191.9412885556594</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>376.5321632265951</v>
+        <v>260.880490856308</v>
       </c>
       <c r="F41" t="n">
-        <v>401.4778388960448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>405.5235188077868</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>198.5197632939535</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>245.5969651132353</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>322.3540516244682</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8427618717463</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>380.8397318103869</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>161.8486142529611</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>143.2172661725457</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>141.0357558009025</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.6276014133615</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>139.3568080686541</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.3708184857752</v>
+        <v>7.601081015447603</v>
       </c>
       <c r="T43" t="n">
-        <v>214.1507424305025</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>59.65592942258743</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>246.7394364781613</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>220.3114485433705</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.1864465064281</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534533</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.91797013962</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="Y44" t="n">
-        <v>383.982187302754</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>7.601081015449263</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590281</v>
+        <v>10.20389322926702</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761691</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056128</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520947</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,13 +5041,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5069,22 +5071,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3309.942028077285</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="U11" t="n">
-        <v>3309.942028077285</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="V11" t="n">
-        <v>3026.328773681787</v>
+        <v>3081.513828560668</v>
       </c>
       <c r="W11" t="n">
-        <v>3026.328773681787</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X11" t="n">
-        <v>2700.312648368781</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.622949341042</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="12">
@@ -5109,16 +5111,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052951</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254615</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611991</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268793</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770422</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998336</v>
@@ -5227,22 +5229,22 @@
         <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1079.203073582566</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>768.3870079238884</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>430.0483882737176</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822733</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,25 +5278,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5306,22 +5308,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3262.764786084339</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2979.151531688842</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2979.151531688842</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341042</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5348,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5360,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5428,7 +5430,7 @@
         <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5437,10 +5439,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5449,34 +5451,34 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
         <v>893.6650816874605</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1301.367519464213</v>
+        <v>1644.05721849195</v>
       </c>
       <c r="C17" t="n">
-        <v>979.8546354718749</v>
+        <v>1322.544334499612</v>
       </c>
       <c r="D17" t="n">
-        <v>772.4735532892846</v>
+        <v>1011.728268840934</v>
       </c>
       <c r="E17" t="n">
-        <v>434.1349336391137</v>
+        <v>1011.728268840934</v>
       </c>
       <c r="F17" t="n">
-        <v>434.1349336391137</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U17" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V17" t="n">
-        <v>2614.542573243048</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W17" t="n">
-        <v>2309.223550921007</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X17" t="n">
-        <v>1983.207425608</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y17" t="n">
-        <v>1640.517726580262</v>
+        <v>1983.207425607998</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337106</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N19" t="n">
         <v>1550.274078843937</v>
@@ -5716,7 +5718,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2018.472742224994</v>
+        <v>1680.134122574823</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.959858232656</v>
+        <v>1358.621238582484</v>
       </c>
       <c r="D20" t="n">
-        <v>1386.143792573978</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E20" t="n">
         <v>1047.805172923807</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822731</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G20" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5768,34 +5770,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
         <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U20" t="n">
-        <v>3262.764786084339</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>3262.764786084339</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W20" t="n">
-        <v>2957.445763762298</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="X20" t="n">
-        <v>2700.312648368781</v>
+        <v>2288.52644793004</v>
       </c>
       <c r="Y20" t="n">
-        <v>2357.622949341042</v>
+        <v>1945.836748902301</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5817,46 +5819,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5908,40 +5910,40 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315245</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328075</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337103</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V22" t="n">
         <v>1489.515482921749</v>
@@ -5975,7 +5977,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398486</v>
@@ -5987,31 +5989,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8454215455611</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L23" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N23" t="n">
-        <v>2475.30339983534</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.268050164795</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q23" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S23" t="n">
         <v>3994.504809309626</v>
@@ -6042,73 +6044,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I24" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L24" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O24" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U24" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y24" t="n">
         <v>1124.393991965682</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2517.474464532005</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C25" t="n">
-        <v>2395.987914552172</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D25" t="n">
-        <v>2293.32090808791</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E25" t="n">
-        <v>2192.85744745359</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F25" t="n">
-        <v>2093.417132903753</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G25" t="n">
-        <v>1973.163929226545</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
-        <v>1874.396375392477</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>1824.520331158895</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>1916.148348858238</v>
+        <v>172.7749345960309</v>
       </c>
       <c r="K25" t="n">
-        <v>2166.640917059521</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L25" t="n">
-        <v>2529.706100760423</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M25" t="n">
-        <v>2920.368531612379</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N25" t="n">
-        <v>3308.28229357065</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O25" t="n">
-        <v>3654.11727774347</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P25" t="n">
-        <v>3933.230163429536</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q25" t="n">
-        <v>4057.345844834458</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R25" t="n">
-        <v>4014.965020540058</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S25" t="n">
-        <v>3870.728769314957</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>3696.411786832557</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
-        <v>3454.758552906274</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
-        <v>3247.52369764846</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>3005.556160559573</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X25" t="n">
-        <v>2825.016242609629</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>2651.673296414172</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2057.779438901537</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1730.813820721657</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D26" t="n">
-        <v>1414.545020875437</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1070.753667037724</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>701.7646610086481</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G26" t="n">
-        <v>328.6891096141758</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6224,16 +6226,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623799</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
         <v>2852.295579285458</v>
@@ -6242,34 +6244,34 @@
         <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>4057.345844834458</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3893.364995979211</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3681.831418013579</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3392.765429430539</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3081.993672920957</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X26" t="n">
-        <v>2750.524813420408</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y26" t="n">
-        <v>2402.382380205127</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>682.2726443642424</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>555.3333601968668</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>447.2136195450623</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>341.2974247232005</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>236.4043759858214</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>110.6984381210716</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>81.14691689668915</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>167.4307098188214</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>412.5790532428945</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>770.3000121665873</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1155.618218241333</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1538.187755422394</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1878.678514818004</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2152.44717572686</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2271.218632354572</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2223.385073872631</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2073.696088459988</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1893.926371790046</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1646.820403676221</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.132814230865</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1186.712542954436</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1000.71989081695</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>821.9242104339509</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,10 +6451,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,16 +6463,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N29" t="n">
         <v>2852.295579285458</v>
@@ -6479,31 +6481,31 @@
         <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6540,28 +6542,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6664,7 +6666,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
@@ -6698,16 +6700,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198916</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N32" t="n">
         <v>2852.295579285458</v>
@@ -6716,13 +6718,13 @@
         <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6734,13 +6736,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6777,13 +6779,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
@@ -6859,40 +6861,40 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982154</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350171</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6903,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2018.472742224993</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.959858232655</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D35" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F35" t="n">
-        <v>684.2689010822729</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G35" t="n">
-        <v>316.6460838753428</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,16 +6937,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3056.683942306249</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2773.070687910752</v>
       </c>
       <c r="W35" t="n">
-        <v>3026.328773681786</v>
+        <v>2467.751665588711</v>
       </c>
       <c r="X35" t="n">
-        <v>2700.31264836878</v>
+        <v>2141.735540275704</v>
       </c>
       <c r="Y35" t="n">
-        <v>2357.622949341041</v>
+        <v>1799.045841247966</v>
       </c>
     </row>
     <row r="36">
@@ -7005,10 +7007,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7017,10 +7019,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,67 +7071,67 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052938</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H37" t="n">
         <v>116.3881606657647</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337117</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M37" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107744</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813345</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588245</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U37" t="n">
         <v>1696.750338179562</v>
       </c>
       <c r="V37" t="n">
-        <v>1489.515482921748</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W37" t="n">
         <v>1247.547945832861</v>
@@ -7138,7 +7140,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874602</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7174,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7199,19 +7201,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>3104.236671416635</v>
+        <v>3041.992567213673</v>
       </c>
       <c r="W38" t="n">
-        <v>2798.917649094594</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X38" t="n">
         <v>2700.31264836878</v>
@@ -7242,10 +7244,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7254,16 +7256,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M40" t="n">
         <v>1162.360316885667</v>
@@ -7348,7 +7350,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q40" t="n">
         <v>2299.337630107745</v>
@@ -7360,7 +7362,7 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U40" t="n">
         <v>1696.750338179562</v>
@@ -7369,13 +7371,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1819.390393615443</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C41" t="n">
-        <v>1455.880610862574</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>1262.000521412413</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="E41" t="n">
-        <v>881.6650030017104</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>476.1318323996448</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7418,7 +7420,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7439,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3125.080808180935</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2877.003065642313</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2551.392912486285</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2204.076991403713</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2204.076991403713</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1819.390393615443</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>820.1343848245319</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C43" t="n">
-        <v>656.6509360841671</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D43" t="n">
-        <v>511.9870308593735</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E43" t="n">
-        <v>369.5266714645225</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>369.5266714645225</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>207.2765690267835</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7567,52 +7569,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>116.978973656329</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>326.3103813824154</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>648.2144046081216</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>997.7156749848807</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1344.468276467956</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1649.142100165579</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1887.093825376448</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1970.048346306173</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1970.048346306173</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1783.815196320542</v>
+        <v>1919.61668847693</v>
       </c>
       <c r="T43" t="n">
-        <v>1567.50131507761</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="U43" t="n">
-        <v>1507.24280050934</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V43" t="n">
-        <v>1258.011046490995</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W43" t="n">
-        <v>1258.011046490995</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.47422978052</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y43" t="n">
-        <v>820.1343848245319</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2345.167438673964</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C44" t="n">
         <v>1976.204921733553</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126802</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
         <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389507</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839472</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7673,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W44" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X44" t="n">
-        <v>3119.628073993393</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y44" t="n">
-        <v>2731.767278738086</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="45">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.8928126690293</v>
+        <v>690.674942710575</v>
       </c>
       <c r="C46" t="n">
-        <v>241.8928126690293</v>
+        <v>521.7387597826681</v>
       </c>
       <c r="D46" t="n">
-        <v>234.2149530574644</v>
+        <v>371.6221203703324</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574644</v>
+        <v>223.7090267879393</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>76.8190792900289</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218342</v>
@@ -7804,25 +7806,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
         <v>1927.294548088493</v>
@@ -7834,22 +7836,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.52793265802</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783663</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577777</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408161</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X46" t="n">
-        <v>644.3338566427989</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y46" t="n">
-        <v>423.5412774992689</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
   </sheetData>
@@ -8216,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.8236344575718</v>
+        <v>203.6038539184165</v>
       </c>
       <c r="L5" t="n">
-        <v>214.3461465099969</v>
+        <v>215.3140777428988</v>
       </c>
       <c r="M5" t="n">
-        <v>206.5120573216581</v>
+        <v>207.5890673186436</v>
       </c>
       <c r="N5" t="n">
-        <v>205.1932258069596</v>
+        <v>206.2876629516757</v>
       </c>
       <c r="O5" t="n">
-        <v>207.2281053906793</v>
+        <v>208.261551351851</v>
       </c>
       <c r="P5" t="n">
-        <v>211.713889376408</v>
+        <v>212.5959115946507</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.6476538770553</v>
+        <v>208.310015830239</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9761063333168</v>
+        <v>120.2861621969137</v>
       </c>
       <c r="K6" t="n">
-        <v>126.1140078377848</v>
+        <v>126.6439426936434</v>
       </c>
       <c r="L6" t="n">
-        <v>122.785401361858</v>
+        <v>123.4979641735829</v>
       </c>
       <c r="M6" t="n">
-        <v>123.7323798828546</v>
+        <v>124.5639070747211</v>
       </c>
       <c r="N6" t="n">
-        <v>112.4530210175835</v>
+        <v>113.3065562599323</v>
       </c>
       <c r="O6" t="n">
-        <v>125.3167823246156</v>
+        <v>126.09760031972</v>
       </c>
       <c r="P6" t="n">
-        <v>120.1061156788774</v>
+        <v>120.7327909580792</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.7111883294728</v>
+        <v>131.1301041576203</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>125.8324684257267</v>
+        <v>126.2415162733966</v>
       </c>
       <c r="M7" t="n">
-        <v>129.3814999771644</v>
+        <v>129.812783579792</v>
       </c>
       <c r="N7" t="n">
-        <v>118.368202235086</v>
+        <v>118.7892308776094</v>
       </c>
       <c r="O7" t="n">
-        <v>129.8504648467618</v>
+        <v>130.2393529435926</v>
       </c>
       <c r="P7" t="n">
-        <v>130.3640213348437</v>
+        <v>130.6967822841772</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>343.5485285966295</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>21.13839585591472</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9884,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665421</v>
+        <v>274.8351763665432</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>287.0017854473914</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665421</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,13 +10354,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>306.6874953089242</v>
+        <v>274.8351763665432</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.16700082036458</v>
+        <v>15.17313444033133</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,16 +23311,16 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
-        <v>141.4356779244606</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.0688822545522</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>98.35495372958425</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>46.70546957301605</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23735,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>102.4006336413261</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>35.71613504204413</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>72.71310498068419</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24020,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X20" t="n">
-        <v>68.19417982029415</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.964063824082729</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.61083201524988</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>73.9220791292562</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>54.77549063691215</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>305.3587092434174</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958319</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403093</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515422</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>5.981554650709711</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>286.7586765022525</v>
       </c>
       <c r="X38" t="n">
-        <v>225.1370133413209</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>377.3356348178139</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>157.3435462193569</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>121.0498792159538</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>289.2095575416538</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>36.17872292725926</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.7895549425091</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>364.3328938328024</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.4337733362706</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>140.0228411772646</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>90.9542135641714</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.53394582438064</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>182.1679443159943</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>221.1577019373588</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>281.1247914909243</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881757</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589019</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>277.256643680326</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.255751353299502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>141.014392002763</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>155.8219150297612</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143207</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983798</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004722</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314418</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770273.8249480127</v>
+        <v>770643.6856737122</v>
       </c>
     </row>
     <row r="4">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>716336.0201930508</v>
+        <v>716336.020193051</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>708824.8049019116</v>
+        <v>716336.020193051</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>716336.0201930508</v>
+        <v>716336.020193051</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>716336.0201930508</v>
+        <v>716336.020193051</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>582099.8641719474</v>
+        <v>574234.1486372532</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>574234.1486372534</v>
+        <v>574234.1486372531</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>757830.6133132604</v>
       </c>
       <c r="C2" t="n">
-        <v>757840.6076060961</v>
+        <v>757840.1559876589</v>
       </c>
       <c r="D2" t="n">
         <v>757900.1082045459</v>
@@ -26323,37 +26325,37 @@
         <v>707191.1841481038</v>
       </c>
       <c r="F2" t="n">
+        <v>707191.1841481044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>707191.1841481043</v>
+      </c>
+      <c r="H2" t="n">
         <v>707191.1841481042</v>
       </c>
-      <c r="G2" t="n">
-        <v>707191.1841481042</v>
-      </c>
-      <c r="H2" t="n">
-        <v>707191.1841481044</v>
-      </c>
       <c r="I2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="J2" t="n">
         <v>759463.6371244615</v>
       </c>
-      <c r="J2" t="n">
-        <v>751041.9714950043</v>
-      </c>
       <c r="K2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.6371244614</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="M2" t="n">
-        <v>707191.1841481039</v>
+        <v>707191.1841481049</v>
       </c>
       <c r="N2" t="n">
-        <v>707191.1841481044</v>
+        <v>707191.1841481043</v>
       </c>
       <c r="O2" t="n">
-        <v>639663.7686957092</v>
+        <v>630844.6330962032</v>
       </c>
       <c r="P2" t="n">
-        <v>630844.6330962034</v>
+        <v>630844.6330962031</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>30746.02380067986</v>
+        <v>29356.68375670185</v>
       </c>
       <c r="D3" t="n">
-        <v>172152.5186499906</v>
+        <v>173459.1820050275</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621993</v>
+        <v>972725.1766621994</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902292</v>
+        <v>48646.25967902272</v>
       </c>
       <c r="J3" t="n">
-        <v>33261.54381834073</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="K3" t="n">
-        <v>4318.565476533268</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161600.4331051143</v>
+        <v>161600.4331051144</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>447024.6202723928</v>
+        <v>447024.6202723929</v>
       </c>
       <c r="C4" t="n">
-        <v>436822.6380121142</v>
+        <v>437279.7803308932</v>
       </c>
       <c r="D4" t="n">
         <v>377175.7121142549</v>
       </c>
       <c r="E4" t="n">
-        <v>59435.44534362318</v>
+        <v>59435.44534362319</v>
       </c>
       <c r="F4" t="n">
         <v>59435.44534362319</v>
       </c>
       <c r="G4" t="n">
-        <v>59435.44534362316</v>
+        <v>59435.4453436232</v>
       </c>
       <c r="H4" t="n">
-        <v>59435.44534362318</v>
+        <v>59435.44534362317</v>
       </c>
       <c r="I4" t="n">
-        <v>86909.55729936338</v>
+        <v>86909.5572993634</v>
       </c>
       <c r="J4" t="n">
-        <v>81699.67950680149</v>
+        <v>86909.55729936341</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936331</v>
+        <v>86909.55729936341</v>
       </c>
       <c r="L4" t="n">
         <v>86909.55729936338</v>
       </c>
       <c r="M4" t="n">
-        <v>59435.44534362321</v>
+        <v>59435.44534362319</v>
       </c>
       <c r="N4" t="n">
-        <v>59435.44534362319</v>
+        <v>59435.44534362317</v>
       </c>
       <c r="O4" t="n">
-        <v>17665.31380597783</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="P4" t="n">
-        <v>12210.17896214081</v>
+        <v>12210.17896214071</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34363.66616156654</v>
+        <v>34330.40507389189</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
@@ -26482,34 +26484,34 @@
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="J5" t="n">
-        <v>88924.11982349776</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="O5" t="n">
-        <v>74760.16241270165</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277178.3930408676</v>
+        <v>277178.3930408675</v>
       </c>
       <c r="C6" t="n">
-        <v>255908.2796317356</v>
+        <v>256873.2868261719</v>
       </c>
       <c r="D6" t="n">
-        <v>169826.0726091538</v>
+        <v>168519.4092541168</v>
       </c>
       <c r="E6" t="n">
-        <v>-403224.9311795004</v>
+        <v>-403224.9311795005</v>
       </c>
       <c r="F6" t="n">
+        <v>569500.2454826995</v>
+      </c>
+      <c r="G6" t="n">
+        <v>569500.2454826996</v>
+      </c>
+      <c r="H6" t="n">
+        <v>569500.2454826992</v>
+      </c>
+      <c r="I6" t="n">
+        <v>534529.8784712701</v>
+      </c>
+      <c r="J6" t="n">
+        <v>545596.0288554179</v>
+      </c>
+      <c r="K6" t="n">
+        <v>583176.1381502929</v>
+      </c>
+      <c r="L6" t="n">
+        <v>583176.1381502921</v>
+      </c>
+      <c r="M6" t="n">
+        <v>407899.8123775856</v>
+      </c>
+      <c r="N6" t="n">
         <v>569500.2454826994</v>
       </c>
-      <c r="G6" t="n">
-        <v>569500.2454826992</v>
-      </c>
-      <c r="H6" t="n">
-        <v>569500.2454826995</v>
-      </c>
-      <c r="I6" t="n">
-        <v>534529.878471269</v>
-      </c>
-      <c r="J6" t="n">
-        <v>547156.6283463642</v>
-      </c>
-      <c r="K6" t="n">
-        <v>578857.5726737592</v>
-      </c>
-      <c r="L6" t="n">
-        <v>583176.1381502918</v>
-      </c>
-      <c r="M6" t="n">
-        <v>407899.8123775846</v>
-      </c>
-      <c r="N6" t="n">
-        <v>569500.2454826995</v>
-      </c>
       <c r="O6" t="n">
-        <v>547238.2924770297</v>
+        <v>544328.1135726692</v>
       </c>
       <c r="P6" t="n">
-        <v>544328.1135726693</v>
+        <v>544328.1135726691</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>33.76450282415354</v>
+        <v>32.23876485742602</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
@@ -26796,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208614</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292592</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>33.76450282415354</v>
+        <v>32.23876485742602</v>
       </c>
       <c r="D3" t="n">
-        <v>201.0155353018407</v>
+        <v>202.5412732685682</v>
       </c>
       <c r="E3" t="n">
         <v>854.9966624673041</v>
@@ -26972,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.57692977292592</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0846886904491</v>
+        <v>338.1475046259335</v>
       </c>
       <c r="I5" t="n">
-        <v>205.2429006452675</v>
+        <v>205.4793670290354</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4288070568376359</v>
+        <v>0.9493903844900569</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.3426477882744</v>
+        <v>141.7279387935103</v>
       </c>
       <c r="S5" t="n">
-        <v>205.9269696541633</v>
+        <v>206.0667395191555</v>
       </c>
       <c r="T5" t="n">
-        <v>222.5016621827736</v>
+        <v>222.528512104178</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3347939722549</v>
+        <v>251.3352846618522</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2708916288342</v>
+        <v>137.2741734048381</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5340344702815</v>
+        <v>111.5657295174771</v>
       </c>
       <c r="I6" t="n">
-        <v>86.89614844415465</v>
+        <v>87.0091394162189</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.64868036039108</v>
+        <v>95.85243834772122</v>
       </c>
       <c r="S6" t="n">
-        <v>170.3341836560992</v>
+        <v>170.3951412059963</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8719968259971</v>
+        <v>199.8852246862936</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9366040852921</v>
+        <v>225.9368199916082</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9300925500873</v>
+        <v>167.932843880847</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6858334293736</v>
+        <v>161.7102952610369</v>
       </c>
       <c r="I7" t="n">
-        <v>153.6194425445976</v>
+        <v>153.7021825641703</v>
       </c>
       <c r="J7" t="n">
-        <v>89.05448276481307</v>
+        <v>89.24900184952192</v>
       </c>
       <c r="K7" t="n">
-        <v>15.19555172600282</v>
+        <v>15.51520633608114</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.0636033252472</v>
+        <v>81.29398975822306</v>
       </c>
       <c r="R7" t="n">
-        <v>174.5556990662143</v>
+        <v>174.6794089020084</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9555070219903</v>
+        <v>223.003455213502</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6854367016036</v>
+        <v>227.6971923875767</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3157082578525</v>
+        <v>286.3158583304393</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859165</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859182</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859148</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859143</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859212</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859068</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859213</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859045</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.9751366185917</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.398206845666692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1357366947704664</v>
+        <v>0.1296030748037226</v>
       </c>
       <c r="H5" t="n">
-        <v>1.390113425318039</v>
+        <v>1.327297489833624</v>
       </c>
       <c r="I5" t="n">
-        <v>5.23298892513841</v>
+        <v>4.996522541370521</v>
       </c>
       <c r="J5" t="n">
-        <v>11.52048229777488</v>
+        <v>10.99989897012246</v>
       </c>
       <c r="K5" t="n">
-        <v>17.26621658740873</v>
+        <v>16.48599712656404</v>
       </c>
       <c r="L5" t="n">
-        <v>21.42026845999039</v>
+        <v>20.45233722708847</v>
       </c>
       <c r="M5" t="n">
-        <v>23.83417590561467</v>
+        <v>22.75716590862917</v>
       </c>
       <c r="N5" t="n">
-        <v>24.21983778963126</v>
+        <v>23.12540064491525</v>
       </c>
       <c r="O5" t="n">
-        <v>22.87010603100743</v>
+        <v>21.83666006983573</v>
       </c>
       <c r="P5" t="n">
-        <v>19.51910637886154</v>
+        <v>18.63708416061883</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.65803599739421</v>
+        <v>13.99567404421051</v>
       </c>
       <c r="R5" t="n">
-        <v>8.526470152875316</v>
+        <v>8.141179147639347</v>
       </c>
       <c r="S5" t="n">
-        <v>3.093099932082006</v>
+        <v>2.953330067089832</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5941873813577169</v>
+        <v>0.567337459953296</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01085893558163731</v>
+        <v>0.0103682459842978</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0726255343764812</v>
+        <v>0.06934375837257672</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7014097662149633</v>
+        <v>0.6697147190193595</v>
       </c>
       <c r="I6" t="n">
-        <v>2.500484407260427</v>
+        <v>2.387493435196173</v>
       </c>
       <c r="J6" t="n">
-        <v>6.86152033334992</v>
+        <v>6.551464469752962</v>
       </c>
       <c r="K6" t="n">
-        <v>11.72743113657416</v>
+        <v>11.1974962807156</v>
       </c>
       <c r="L6" t="n">
-        <v>15.76897841801624</v>
+        <v>15.05641560629128</v>
       </c>
       <c r="M6" t="n">
-        <v>18.40165403916368</v>
+        <v>17.57012684729718</v>
       </c>
       <c r="N6" t="n">
-        <v>18.88869106574982</v>
+        <v>18.03515582340099</v>
       </c>
       <c r="O6" t="n">
-        <v>17.27946211982884</v>
+        <v>16.49864412472443</v>
       </c>
       <c r="P6" t="n">
-        <v>13.8682917354528</v>
+        <v>13.24161645625108</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.270585756548723</v>
+        <v>8.851669928401199</v>
       </c>
       <c r="R6" t="n">
-        <v>4.509153792252054</v>
+        <v>4.305395804921915</v>
       </c>
       <c r="S6" t="n">
-        <v>1.348987447738586</v>
+        <v>1.288029897841501</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2927318688245009</v>
+        <v>0.2795040085280613</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004777995682663239</v>
+        <v>0.004562089366616891</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06088680837142441</v>
+        <v>0.05813547761175183</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5413390780659374</v>
+        <v>0.5168772464026666</v>
       </c>
       <c r="I7" t="n">
-        <v>1.831032382660654</v>
+        <v>1.748292363087956</v>
       </c>
       <c r="J7" t="n">
-        <v>4.304697351859705</v>
+        <v>4.110178267150855</v>
       </c>
       <c r="K7" t="n">
-        <v>7.073940099880034</v>
+        <v>6.754285489801712</v>
       </c>
       <c r="L7" t="n">
-        <v>9.05220785551159</v>
+        <v>8.643160007841724</v>
       </c>
       <c r="M7" t="n">
-        <v>9.544283970440645</v>
+        <v>9.113000367813061</v>
       </c>
       <c r="N7" t="n">
-        <v>9.317342230147162</v>
+        <v>8.896313587623812</v>
       </c>
       <c r="O7" t="n">
-        <v>8.606073605080972</v>
+        <v>8.217185508250163</v>
       </c>
       <c r="P7" t="n">
-        <v>7.363982714303909</v>
+        <v>7.031221764970419</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.098439926447184</v>
+        <v>4.868053493471328</v>
       </c>
       <c r="R7" t="n">
-        <v>2.737692310955137</v>
+        <v>2.613982475161132</v>
       </c>
       <c r="S7" t="n">
-        <v>1.061091014982005</v>
+        <v>1.013142823470257</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2601527266779042</v>
+        <v>0.2483970407047578</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003321098638441335</v>
+        <v>0.003171026051550104</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34366,13 +34368,13 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623188</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34454,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35814,13 +35816,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412314</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887899</v>
       </c>
       <c r="M19" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861315</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165766</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629122</v>
@@ -36288,7 +36290,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>895.850364009541</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>529.1913967441337</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165831</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887907</v>
@@ -36525,16 +36527,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794536</v>
+        <v>827.1370117794545</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>825.9229012776179</v>
       </c>
       <c r="N29" t="n">
-        <v>827.1370117794536</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>858.9893307218357</v>
+        <v>827.1370117794545</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165887</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887888</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687133</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165887</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412302</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37710,16 +37712,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637021</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.97662345873292</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>211.4458663899863</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>325.1555790158648</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>353.0315862391506</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>350.2551530132068</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>307.7513370683065</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>240.3552779907771</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.79244538356035</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923316</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38102,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306634</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789376</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3144443.196414602</v>
+        <v>3135854.888259935</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10907410.15957845</v>
+        <v>10868463.63296455</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555926.37779077</v>
+        <v>1357167.375808604</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7889067.842141672</v>
+        <v>7936034.083481818</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>51.98374871615889</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>84.7082395969901</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433971</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404365</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1609,22 +1609,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>219.9428014228307</v>
+        <v>129.7848754086736</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1669,10 +1669,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1767,25 +1767,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1846,16 +1846,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>324.1847740810747</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G17" t="n">
         <v>363.9465890348608</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -1903,7 +1903,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>196.8486114728749</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988204</v>
@@ -1912,7 +1912,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2058,7 +2058,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>263.0456000642038</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D20" t="n">
         <v>307.7079050020903</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231188</v>
@@ -2098,7 +2098,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>92.26424210779912</v>
       </c>
       <c r="X20" t="n">
         <v>322.7559640598764</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2256,10 +2256,10 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145474</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2320,7 +2320,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D23" t="n">
         <v>307.7079050020903</v>
@@ -2332,7 +2332,7 @@
         <v>359.9009091231188</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348606</v>
       </c>
       <c r="H23" t="n">
         <v>247.6326277687279</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2557,19 +2557,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403088</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,25 +2715,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.573812657577</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210282</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2955,22 +2955,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3015,7 +3015,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3046,7 +3046,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403093</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,22 +3192,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3243,7 +3243,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3252,7 +3252,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.39999580147057</v>
+        <v>321.9569812114275</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>304.4960313189545</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>293.9061811686299</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>321.1535096202088</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>346.0991852896584</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>350.1448652014004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>233.8309039352675</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>48.41090133612285</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>143.1411096875672</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>190.218311506849</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>38.72946941871359</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>308.954240226416</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>325.4610782040006</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>119.0551197298843</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>106.4699606465748</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>87.83861256615936</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>85.65710219451617</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>84.64418757087824</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>105.2489478069752</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>83.97815446226778</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>35.57555995778511</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514552</v>
+        <v>28.15529221799434</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>128.9921648793889</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>158.7720888241162</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870204</v>
+        <v>225.4349777535598</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>191.360782871775</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>225.746137884538</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>164.9327949369842</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>157.8077929000418</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>321.9569812114275</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>304.4960313189545</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>293.9061811686299</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>321.1535096202088</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>346.0991852896584</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>350.1448652014004</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>233.8309039352675</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>190.218311506849</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>15.5071555965679</v>
+        <v>230.2814804424035</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>308.954240226416</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>325.4610782040006</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>119.0551197298843</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>106.4699606465748</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>87.83861256615936</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>85.65710219451617</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>84.64418757087824</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>105.2489478069752</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>83.97815446226778</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>35.57555995778511</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>28.15529221799434</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>128.9921648793889</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>158.7720888241162</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>225.4349777535598</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>191.360782871775</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>225.746137884538</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>164.9327949369842</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>157.8077929000418</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>368.9321178300201</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>351.4711679375471</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>340.8813177872225</v>
       </c>
       <c r="E41" t="n">
-        <v>260.880490856308</v>
+        <v>368.1286462388013</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>393.074321908251</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>397.120001819993</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>335.4392448839525</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>299.0197348968355</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>372.4362148225931</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>166.0302563484768</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>127.3577820075283</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>75.13042883658683</v>
       </c>
       <c r="S43" t="n">
-        <v>7.601081015447603</v>
+        <v>175.9673014979814</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>205.7472254427087</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>272.4101143721524</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>238.3359194903675</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>272.7212745031305</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>211.9079315555767</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>204.7829295186343</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>368.9321178300202</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>351.4711679375471</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>368.1286462388014</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>393.074321908251</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>397.120001819993</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>280.80604055386</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>95.38603795471539</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.025394088986581</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>237.1934481254415</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>92.47445699814307</v>
+        <v>355.9293768450086</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>372.4362148225932</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>166.0302563484769</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>151.1009990799408</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>10.20389322926702</v>
+        <v>152.2240844255678</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>75.13042883658689</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>205.7472254427088</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>272.4101143721525</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>238.3359194903676</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>272.7212745031306</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>211.9079315555767</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>204.7829295186343</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1768.338774781834</v>
+        <v>1650.849925018064</v>
       </c>
       <c r="C11" t="n">
-        <v>1446.825890789496</v>
+        <v>1329.337041025725</v>
       </c>
       <c r="D11" t="n">
-        <v>1136.009825130819</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806478</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5041,16 +5041,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5074,19 +5074,19 @@
         <v>3167.077706941466</v>
       </c>
       <c r="U11" t="n">
-        <v>3167.077706941466</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V11" t="n">
-        <v>3081.513828560668</v>
+        <v>2677.383608767879</v>
       </c>
       <c r="W11" t="n">
-        <v>2776.194806238627</v>
+        <v>2372.064586445838</v>
       </c>
       <c r="X11" t="n">
-        <v>2450.178680925621</v>
+        <v>2046.048461132831</v>
       </c>
       <c r="Y11" t="n">
-        <v>2107.488981897883</v>
+        <v>1703.358762105093</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052951</v>
+        <v>759.4662498052953</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254615</v>
+        <v>637.9796998254617</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611991</v>
+        <v>535.3126933611993</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268793</v>
+        <v>434.8492327268795</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770422</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5217,7 +5217,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5235,16 +5235,16 @@
         <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832863</v>
       </c>
       <c r="X13" t="n">
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874615</v>
+        <v>893.6650816874617</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1301.367519464213</v>
+        <v>1828.05569197879</v>
       </c>
       <c r="C14" t="n">
-        <v>1079.203073582566</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D14" t="n">
-        <v>768.3870079238884</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>430.0483882737176</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,13 +5290,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>3119.524977831081</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2835.911723435584</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>2835.911723435584</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425608</v>
+        <v>2509.895598122577</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580261</v>
+        <v>2167.205899094839</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268786</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5439,10 +5439,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5481,7 +5481,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1644.05721849195</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C17" t="n">
-        <v>1322.544334499612</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D17" t="n">
-        <v>1011.728268840934</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E17" t="n">
-        <v>1011.728268840934</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F17" t="n">
         <v>684.268901082273</v>
@@ -5509,10 +5509,10 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
@@ -5530,37 +5530,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U17" t="n">
-        <v>2898.155827638543</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2614.542573243046</v>
+        <v>2699.318846352812</v>
       </c>
       <c r="W17" t="n">
-        <v>2309.223550921005</v>
+        <v>2393.999824030771</v>
       </c>
       <c r="X17" t="n">
-        <v>1983.207425607998</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y17" t="n">
-        <v>1983.207425607998</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,13 +5609,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>158.1401341315256</v>
@@ -5679,19 +5679,19 @@
         <v>408.6327023328085</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337106</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885666</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
         <v>2299.337630107745</v>
@@ -5703,7 +5703,7 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U19" t="n">
         <v>1696.750338179562</v>
@@ -5718,7 +5718,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.134122574823</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C20" t="n">
-        <v>1358.621238582484</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D20" t="n">
-        <v>1047.805172923807</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E20" t="n">
         <v>1047.805172923807</v>
@@ -5746,58 +5746,58 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638544</v>
+        <v>3119.524977831079</v>
       </c>
       <c r="V20" t="n">
-        <v>2614.542573243046</v>
+        <v>3119.524977831079</v>
       </c>
       <c r="W20" t="n">
-        <v>2614.542573243046</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X20" t="n">
-        <v>2288.52644793004</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y20" t="n">
-        <v>1945.836748902301</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5819,46 +5819,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
         <v>215.1557144998336</v>
@@ -5907,16 +5907,16 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315245</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328075</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337103</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885666</v>
@@ -5955,7 +5955,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
         <v>81.14691689668915</v>
@@ -6004,13 +6004,13 @@
         <v>2302.596005545029</v>
       </c>
       <c r="O23" t="n">
-        <v>2826.495488321721</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P23" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834457</v>
@@ -6025,7 +6025,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
         <v>81.14691689668915</v>
@@ -6092,25 +6092,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U24" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y24" t="n">
         <v>1124.393991965682</v>
@@ -6147,25 +6147,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960309</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
         <v>2313.972430572251</v>
@@ -6205,19 +6205,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6229,28 +6229,28 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2959.066785849466</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521972</v>
+        <v>3672.421873296411</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6259,19 +6259,19 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6323,10 +6323,10 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6384,16 +6384,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6414,7 +6414,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6429,7 +6429,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6463,31 +6463,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058811</v>
+        <v>2200.835586644151</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2747.614403702933</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3250.58687458227</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6657,7 +6657,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6666,7 +6666,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
@@ -6700,31 +6700,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>393.2994530991704</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>727.1188267890168</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6791,16 +6791,16 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6864,28 +6864,28 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6894,7 +6894,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6903,7 +6903,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1768.338774781834</v>
+        <v>1934.825931113112</v>
       </c>
       <c r="C35" t="n">
-        <v>1446.825890789496</v>
+        <v>1627.254182306087</v>
       </c>
       <c r="D35" t="n">
-        <v>1136.009825130819</v>
+        <v>1330.379251832724</v>
       </c>
       <c r="E35" t="n">
-        <v>797.6712054806478</v>
+        <v>1005.981767367866</v>
       </c>
       <c r="F35" t="n">
-        <v>434.1349336391136</v>
+        <v>656.3866307116459</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>302.7049486900293</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.764786084339</v>
+        <v>3276.705921269652</v>
       </c>
       <c r="T35" t="n">
-        <v>3262.764786084339</v>
+        <v>3132.118941787261</v>
       </c>
       <c r="U35" t="n">
-        <v>3056.683942306249</v>
+        <v>2939.979233194484</v>
       </c>
       <c r="V35" t="n">
-        <v>2773.070687910752</v>
+        <v>2939.979233194484</v>
       </c>
       <c r="W35" t="n">
-        <v>2467.751665588711</v>
+        <v>2900.858557013965</v>
       </c>
       <c r="X35" t="n">
-        <v>2141.735540275704</v>
+        <v>2588.783566886272</v>
       </c>
       <c r="Y35" t="n">
-        <v>1799.045841247966</v>
+        <v>2260.035003043847</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7034,7 +7034,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052942</v>
+        <v>661.8783035080993</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254606</v>
+        <v>554.3328887135792</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611982</v>
+        <v>465.6070174346303</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268784</v>
+        <v>379.0846919856241</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770414</v>
+        <v>293.5855126211006</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998336</v>
+        <v>187.2734441292065</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657647</v>
+        <v>102.4470254804512</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315256</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328085</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337113</v>
+        <v>660.8284656356625</v>
       </c>
       <c r="M37" t="n">
-        <v>1162.360316885667</v>
+        <v>1065.154603082744</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843938</v>
+        <v>1406.562979788609</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016758</v>
+        <v>1705.892578709022</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702824</v>
+        <v>1938.500079142681</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107746</v>
+        <v>2076.279467142728</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813346</v>
+        <v>2047.839778033643</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588246</v>
+        <v>1917.544661993856</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105846</v>
+        <v>1757.168814696769</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179562</v>
+        <v>1529.4567159558</v>
       </c>
       <c r="V37" t="n">
-        <v>1489.515482921749</v>
+        <v>1336.1629958833</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832861</v>
+        <v>1108.136593979726</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882917</v>
+        <v>941.5378112150953</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874605</v>
+        <v>782.1360002049521</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2018.472742224994</v>
+        <v>1934.825931113112</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.959858232655</v>
+        <v>1627.254182306087</v>
       </c>
       <c r="D38" t="n">
-        <v>1386.143792573978</v>
+        <v>1330.379251832724</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.805172923807</v>
+        <v>1005.981767367866</v>
       </c>
       <c r="F38" t="n">
-        <v>684.268901082273</v>
+        <v>656.3866307116459</v>
       </c>
       <c r="G38" t="n">
-        <v>316.6460838753429</v>
+        <v>302.7049486900293</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3133.466113016393</v>
       </c>
       <c r="V38" t="n">
-        <v>3041.992567213673</v>
+        <v>3133.466113016393</v>
       </c>
       <c r="W38" t="n">
-        <v>3026.328773681787</v>
+        <v>2900.858557013965</v>
       </c>
       <c r="X38" t="n">
-        <v>2700.31264836878</v>
+        <v>2588.783566886272</v>
       </c>
       <c r="Y38" t="n">
-        <v>2357.622949341042</v>
+        <v>2260.035003043847</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7265,16 +7265,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052942</v>
+        <v>661.8783035080993</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254606</v>
+        <v>554.3328887135792</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611982</v>
+        <v>465.6070174346303</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268784</v>
+        <v>379.0846919856241</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770414</v>
+        <v>293.5855126211006</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998337</v>
+        <v>187.2734441292065</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657648</v>
+        <v>102.4470254804512</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315256</v>
+        <v>171.8038407266514</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328085</v>
+        <v>404.4377590346989</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337113</v>
+        <v>720.997557483195</v>
       </c>
       <c r="M40" t="n">
-        <v>1162.360316885667</v>
+        <v>1065.154603082744</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843938</v>
+        <v>1406.562979788609</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016758</v>
+        <v>1705.892578709022</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702823</v>
+        <v>1938.500079142681</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107745</v>
+        <v>2076.279467142728</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813346</v>
+        <v>2047.839778033643</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588246</v>
+        <v>1917.544661993856</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105845</v>
+        <v>1757.168814696769</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179562</v>
+        <v>1529.4567159558</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.515482921749</v>
+        <v>1336.1629958833</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832861</v>
+        <v>1108.136593979726</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882917</v>
+        <v>941.5378112150953</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874605</v>
+        <v>782.1360002049521</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038043</v>
+        <v>1935.881263595633</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097631</v>
+        <v>1580.859881840535</v>
       </c>
       <c r="D41" t="n">
-        <v>1453.669719097631</v>
+        <v>1236.535318419098</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>864.6882010061672</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>467.6434314018733</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2986.778301524369</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2684.738165264939</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102165</v>
+        <v>2308.539968474441</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>234.2149530574645</v>
+        <v>195.156340682212</v>
       </c>
       <c r="C43" t="n">
-        <v>234.2149530574645</v>
+        <v>195.156340682212</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574645</v>
+        <v>195.156340682212</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>195.156340682212</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>195.156340682212</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>125.2984554742448</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>342.9493450182471</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>673.1728500618692</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>1030.993602256544</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1386.065685557535</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1699.058991073074</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1945.330198101859</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>2036.6042008495</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1960.714878792342</v>
       </c>
       <c r="S43" t="n">
-        <v>1919.61668847693</v>
+        <v>1782.970129804482</v>
       </c>
       <c r="T43" t="n">
-        <v>1697.850073046456</v>
+        <v>1575.144649559321</v>
       </c>
       <c r="U43" t="n">
-        <v>1408.747206172099</v>
+        <v>1299.982917870278</v>
       </c>
       <c r="V43" t="n">
-        <v>1154.062717966212</v>
+        <v>1059.239564849705</v>
       </c>
       <c r="W43" t="n">
-        <v>864.6455479292516</v>
+        <v>783.7635299980582</v>
       </c>
       <c r="X43" t="n">
-        <v>636.6559970312343</v>
+        <v>569.7151142853545</v>
       </c>
       <c r="Y43" t="n">
-        <v>415.8634178877041</v>
+        <v>362.863670327138</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2345.167438673965</v>
+        <v>1875.199165380116</v>
       </c>
       <c r="C44" t="n">
-        <v>1976.204921733553</v>
+        <v>1520.177783625017</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1520.177783625017</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>1148.330666212087</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>751.2858966077927</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>350.1545816381027</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3229.25628832158</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3223.170031666038</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>2983.580690125188</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136266</v>
+        <v>2983.580690125188</v>
       </c>
       <c r="W44" t="n">
-        <v>3215.315153136266</v>
+        <v>2983.580690125188</v>
       </c>
       <c r="X44" t="n">
-        <v>3121.906610713899</v>
+        <v>2624.056067049422</v>
       </c>
       <c r="Y44" t="n">
-        <v>2731.767278738087</v>
+        <v>2247.857870258924</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>690.674942710575</v>
+        <v>372.9010896700709</v>
       </c>
       <c r="C46" t="n">
-        <v>521.7387597826681</v>
+        <v>220.2738178721509</v>
       </c>
       <c r="D46" t="n">
-        <v>371.6221203703324</v>
+        <v>220.2738178721509</v>
       </c>
       <c r="E46" t="n">
-        <v>223.7090267879393</v>
+        <v>220.2738178721509</v>
       </c>
       <c r="F46" t="n">
-        <v>76.8190792900289</v>
+        <v>220.2738178721509</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>125.2984554742448</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>342.9493450182471</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>673.172850061869</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>1030.993602256544</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1386.065685557534</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1699.058991073074</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1945.330198101859</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>2036.604200849499</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1960.714878792341</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1960.714878792341</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1752.88939854718</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>1477.727666858138</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577775</v>
+        <v>1236.984313837564</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408147</v>
+        <v>961.5082789859173</v>
       </c>
       <c r="X46" t="n">
-        <v>872.3234075408147</v>
+        <v>747.4598632732135</v>
       </c>
       <c r="Y46" t="n">
-        <v>872.3234075408147</v>
+        <v>540.608419314997</v>
       </c>
     </row>
   </sheetData>
@@ -8218,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>203.6038539184165</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>215.3140777428988</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>207.5890673186436</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>206.2876629516757</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>208.261551351851</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>212.5959115946507</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>208.310015830239</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>120.2861621969137</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6439426936434</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>123.4979641735829</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>124.5639070747211</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3065562599323</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>126.09760031972</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>120.7327909580792</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>131.1301041576203</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>126.2415162733966</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>129.812783579792</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>118.7892308776094</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>130.2393529435926</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>130.6967822841772</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>2.422950728941942e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>21.13839585591472</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665432</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>78.40458911672883</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,22 +10120,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>287.0017854473914</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>40.02214132148674</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5185911550059</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,22 +10357,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665432</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.17313444033133</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>283.7749563287291</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0688822545522</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>98.35495372958425</v>
+        <v>188.5128797437414</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>35.71613504204413</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>83.9285103786674</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>72.71310498068419</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988204</v>
+        <v>210.0015899910213</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>305.3587092434174</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>266.9753980180819</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>249.7346388466464</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>48.41090133612285</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>143.1411096875672</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>266.9753980180819</v>
       </c>
       <c r="W38" t="n">
-        <v>286.7586765022525</v>
+        <v>58.18262782295645</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>121.0498792159538</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>280.80604055386</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>27.77520593946545</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>95.38603795471533</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>190.1162463061597</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>237.1934481254415</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>313.9505346366744</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>56.90964194817309</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>153.4450972651673</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>134.8137491847519</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>132.6322388131087</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>131.6193241894707</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>24.86630241803945</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>130.9532910808603</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>82.55069657637759</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>182.1679443159943</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>340.8813177872225</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>27.77520593946551</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>184.0908522171731</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>313.9505346366745</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>335.4392448839526</v>
       </c>
       <c r="X44" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.344098185226557</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>134.8137491847519</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>132.6322388131087</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>131.6193241894708</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8219150297612</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>130.9532910808603</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>82.55069657637765</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>175.9673014979815</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770643.6856737122</v>
+        <v>778035.0146964311</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>642327.0184943544</v>
+        <v>642327.0184943546</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>642327.0184943544</v>
+        <v>642327.0184943543</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>642327.0184943544</v>
+        <v>655016.0473523611</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>642327.0184943544</v>
+        <v>655016.0473523613</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>574234.1486372532</v>
+        <v>594344.6106232648</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>574234.1486372531</v>
+        <v>594344.6106232648</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132601</v>
       </c>
       <c r="C2" t="n">
-        <v>757840.1559876589</v>
+        <v>757830.6133132603</v>
       </c>
       <c r="D2" t="n">
         <v>757900.1082045459</v>
@@ -26325,16 +26325,16 @@
         <v>707191.1841481038</v>
       </c>
       <c r="F2" t="n">
-        <v>707191.1841481044</v>
+        <v>707191.1841481046</v>
       </c>
       <c r="G2" t="n">
+        <v>707191.1841481046</v>
+      </c>
+      <c r="H2" t="n">
         <v>707191.1841481043</v>
       </c>
-      <c r="H2" t="n">
-        <v>707191.1841481042</v>
-      </c>
       <c r="I2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="J2" t="n">
         <v>759463.6371244615</v>
@@ -26343,19 +26343,19 @@
         <v>759463.6371244624</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.6371244616</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="M2" t="n">
-        <v>707191.1841481049</v>
+        <v>721418.2771101122</v>
       </c>
       <c r="N2" t="n">
-        <v>707191.1841481043</v>
+        <v>721418.2771101122</v>
       </c>
       <c r="O2" t="n">
-        <v>630844.6330962032</v>
+        <v>653392.7268380948</v>
       </c>
       <c r="P2" t="n">
-        <v>630844.6330962031</v>
+        <v>653392.726838095</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>29356.68375670185</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>173459.1820050275</v>
+        <v>201068.9115716352</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621994</v>
+        <v>972725.1766621995</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902272</v>
+        <v>48646.25967902333</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487401</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>161600.4331051144</v>
+        <v>172641.8121718826</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>447024.6202723929</v>
       </c>
       <c r="C4" t="n">
-        <v>437279.7803308932</v>
+        <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
         <v>377175.7121142549</v>
       </c>
       <c r="E4" t="n">
+        <v>59435.44534362313</v>
+      </c>
+      <c r="F4" t="n">
+        <v>59435.44534362314</v>
+      </c>
+      <c r="G4" t="n">
+        <v>59435.44534362327</v>
+      </c>
+      <c r="H4" t="n">
         <v>59435.44534362319</v>
-      </c>
-      <c r="F4" t="n">
-        <v>59435.44534362319</v>
-      </c>
-      <c r="G4" t="n">
-        <v>59435.4453436232</v>
-      </c>
-      <c r="H4" t="n">
-        <v>59435.44534362317</v>
       </c>
       <c r="I4" t="n">
         <v>86909.5572993634</v>
       </c>
       <c r="J4" t="n">
+        <v>86909.55729936337</v>
+      </c>
+      <c r="K4" t="n">
+        <v>86909.55729936343</v>
+      </c>
+      <c r="L4" t="n">
         <v>86909.55729936341</v>
       </c>
-      <c r="K4" t="n">
-        <v>86909.55729936341</v>
-      </c>
-      <c r="L4" t="n">
-        <v>86909.55729936338</v>
-      </c>
       <c r="M4" t="n">
-        <v>59435.44534362319</v>
+        <v>68144.67816127618</v>
       </c>
       <c r="N4" t="n">
-        <v>59435.44534362317</v>
+        <v>68144.67816127621</v>
       </c>
       <c r="O4" t="n">
-        <v>12210.17896214071</v>
+        <v>26157.45196250103</v>
       </c>
       <c r="P4" t="n">
-        <v>12210.17896214071</v>
+        <v>26157.45196250103</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34330.40507389189</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178172</v>
       </c>
       <c r="I5" t="n">
         <v>89377.9416748061</v>
@@ -26496,22 +26496,22 @@
         <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178175</v>
+        <v>79415.79044273692</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178175</v>
+        <v>79415.79044273692</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>75466.63768234848</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>75466.63768234849</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277178.3930408675</v>
+        <v>277134.2572621861</v>
       </c>
       <c r="C6" t="n">
-        <v>256873.2868261719</v>
+        <v>277134.2572621863</v>
       </c>
       <c r="D6" t="n">
-        <v>168519.4092541168</v>
+        <v>140867.4221491331</v>
       </c>
       <c r="E6" t="n">
-        <v>-403224.9311795005</v>
+        <v>-404637.7001788617</v>
       </c>
       <c r="F6" t="n">
-        <v>569500.2454826995</v>
+        <v>568087.476483339</v>
       </c>
       <c r="G6" t="n">
-        <v>569500.2454826996</v>
+        <v>568087.476483339</v>
       </c>
       <c r="H6" t="n">
-        <v>569500.2454826992</v>
+        <v>568087.4764833385</v>
       </c>
       <c r="I6" t="n">
-        <v>534529.8784712701</v>
+        <v>534529.8784712689</v>
       </c>
       <c r="J6" t="n">
-        <v>545596.0288554179</v>
+        <v>545596.028855418</v>
       </c>
       <c r="K6" t="n">
         <v>583176.1381502929</v>
       </c>
       <c r="L6" t="n">
-        <v>583176.1381502921</v>
+        <v>583176.1381502922</v>
       </c>
       <c r="M6" t="n">
-        <v>407899.8123775856</v>
+        <v>400187.7433608557</v>
       </c>
       <c r="N6" t="n">
-        <v>569500.2454826994</v>
+        <v>572829.5555327383</v>
       </c>
       <c r="O6" t="n">
-        <v>544328.1135726692</v>
+        <v>548901.8558341542</v>
       </c>
       <c r="P6" t="n">
-        <v>544328.1135726691</v>
+        <v>548901.8558341544</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
         <v>46.97513661859259</v>
@@ -26709,25 +26709,25 @@
         <v>46.97513661859259</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
     </row>
     <row r="3">
@@ -26740,13 +26740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.23876485742602</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26804,10 +26804,10 @@
         <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208614</v>
@@ -26822,16 +26822,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>13.80172383346039</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,25 +26962,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.23876485742602</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>202.5412732685682</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>854.9966624673041</v>
+        <v>854.9966624673043</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063218</v>
+        <v>182.9350058063221</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.1475046259335</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>205.4793670290354</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9493903844900569</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>141.7279387935103</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>206.0667395191555</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>222.528512104178</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3352846618522</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2741734048381</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5657295174771</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>87.0091394162189</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.85243834772122</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>170.3951412059963</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8852246862936</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9368199916082</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27788,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.932843880847</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>161.7102952610369</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7021825641703</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>89.24900184952192</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>15.51520633608114</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.29398975822306</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>174.6794089020084</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.003455213502</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6971923875767</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3158583304393</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28584,7 +28584,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28751,7 +28751,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859182</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M19" t="n">
         <v>46.97513661859259</v>
@@ -28821,7 +28821,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859143</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K22" t="n">
         <v>46.97513661859259</v>
@@ -28991,7 +28991,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="N22" t="n">
         <v>46.97513661859259</v>
@@ -29219,7 +29219,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859212</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K25" t="n">
         <v>46.97513661859259</v>
@@ -29240,7 +29240,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859213</v>
       </c>
       <c r="R25" t="n">
         <v>46.97513661859259</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859148</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859213</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>28.93609632239509</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>28.93609632239514</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.9751366185917</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>60.77686045205301</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>13.80172383346049</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>13.80172383346044</v>
       </c>
     </row>
   </sheetData>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1296030748037226</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.327297489833624</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.996522541370521</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.99989897012246</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>16.48599712656404</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>20.45233722708847</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>22.75716590862917</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>23.12540064491525</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>21.83666006983573</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>18.63708416061883</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.99567404421051</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8.141179147639347</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.953330067089832</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.567337459953296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0103682459842978</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06934375837257672</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6697147190193595</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.387493435196173</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.551464469752962</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>11.1974962807156</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>15.05641560629128</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>17.57012684729718</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>18.03515582340099</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>16.49864412472443</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>13.24161645625108</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.851669928401199</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.305395804921915</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.288029897841501</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2795040085280613</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004562089366616891</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05813547761175183</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5168772464026666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.748292363087956</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.110178267150855</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.754285489801712</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>8.643160007841724</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>9.113000367813061</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>8.896313587623812</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>8.217185508250163</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>7.031221764970419</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.868053493471328</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.613982475161132</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.013142823470257</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2483970407047578</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003171026051550104</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32086,7 +32086,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32344,7 +32344,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32393,16 +32393,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32411,19 +32411,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002947</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33043,7 +33043,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33511,7 +33511,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
@@ -33751,13 +33751,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34368,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34456,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35582,7 +35582,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
@@ -35734,7 +35734,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222709</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887899</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861326</v>
@@ -36059,7 +36059,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3693751564862</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859644</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165766</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120759</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,16 +36372,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>529.1913967441337</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165831</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36536,7 +36536,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>329.1988939204483</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36770,7 +36770,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36840,22 +36840,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>825.9229012776179</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>438.7841275408584</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37001,7 +37001,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>315.3055921237184</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554004</v>
@@ -37077,22 +37077,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37238,7 +37238,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861315</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37247,7 +37247,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687133</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
@@ -37329,7 +37329,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>348.6934684925932</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>408.4102398455368</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>139.1710989899466</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>106.3552770651192</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>234.9837558667147</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637021</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>139.1710989899466</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222342</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>59.38014044652672</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>219.8493833777801</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>333.5590960036586</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>361.4351032269443</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>358.6586700010006</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>316.1548540561002</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>248.7587949785709</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>92.19596237135414</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38104,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>59.38014044652667</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>219.84938337778</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>333.5590960036586</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>361.4351032269442</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>358.6586700010005</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>316.1548540561002</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>248.7587949785709</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>92.19596237135409</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
